--- a/Final For the Paper with State Results Table 2013 - 2017.xlsx
+++ b/Final For the Paper with State Results Table 2013 - 2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nptho\USNH\StatsRRTC 2.0 - Ry - IASSIDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nptho\USNH\StatsRRTC 2.0 - Ry - IASSIDD\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB65BB49-6CC6-4EC8-A6A5-EEB7C01C4E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062EF721-59F7-47DA-A66A-039A95C2B717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="75" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="7" xr2:uid="{B0A0D3FD-1413-44CD-810E-BE680FD3B0EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" xr2:uid="{B0A0D3FD-1413-44CD-810E-BE680FD3B0EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Results Table 5" sheetId="4" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16785" uniqueCount="9763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16786" uniqueCount="9764">
   <si>
     <t xml:space="preserve"> Population Estimate Table and Proxy Measure Proportions, within NHIS 2013-2017</t>
   </si>
@@ -31137,6 +31137,9 @@
   </si>
   <si>
     <t>0.78% (0.03%-1.54%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -31797,49 +31800,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31857,8 +31818,50 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -32229,8 +32232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A2EEB9-A6F4-480F-86D1-5461C7AB25C4}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32527,22 +32530,27 @@
         <v>7466</v>
       </c>
     </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>9763</v>
+      </c>
+    </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37407,54 +37415,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="115" t="s">
         <v>7166</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="115"/>
       <c r="C1" s="63"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="64"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
       <c r="K1" s="64"/>
       <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="117" t="s">
         <v>7140</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="64"/>
       <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="34.15" customHeight="1" thickBot="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="117" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="123"/>
@@ -37476,7 +37484,7 @@
         <v>7148</v>
       </c>
       <c r="K4" s="126"/>
-      <c r="L4" s="134"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="124"/>
@@ -37487,18 +37495,18 @@
       <c r="F5" s="68" t="s">
         <v>7167</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="127" t="s">
         <v>7143</v>
       </c>
-      <c r="H5" s="116"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="68" t="s">
         <v>7146</v>
       </c>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="127" t="s">
         <v>7149</v>
       </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="114"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="A6" s="125"/>
@@ -37509,37 +37517,37 @@
       <c r="F6" s="67" t="s">
         <v>7141</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="114" t="s">
         <v>7144</v>
       </c>
-      <c r="H6" s="118"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="67" t="s">
         <v>7147</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="114" t="s">
         <v>7150</v>
       </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>7151</v>
       </c>
       <c r="B8" s="126" t="s">
@@ -37551,466 +37559,508 @@
       <c r="F8" s="70">
         <v>163661</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="130">
         <v>3859</v>
       </c>
-      <c r="H8" s="128"/>
+      <c r="H8" s="130"/>
       <c r="I8" s="70">
         <v>2619</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="130">
         <v>2835</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="114"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="122"/>
     </row>
     <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" s="119"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127" t="s">
         <v>7153</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="68" t="s">
         <v>7441</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="127" t="s">
         <v>7442</v>
       </c>
-      <c r="H9" s="116"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="68" t="s">
         <v>7443</v>
       </c>
-      <c r="J9" s="116" t="s">
+      <c r="J9" s="127" t="s">
         <v>7444</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="114"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="122"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="129" t="s">
         <v>7154</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="127" t="s">
         <v>7152</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="70">
         <v>19910</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="134">
         <v>1116</v>
       </c>
-      <c r="H10" s="122"/>
+      <c r="H10" s="134"/>
       <c r="I10" s="68">
         <v>697</v>
       </c>
-      <c r="J10" s="116">
+      <c r="J10" s="127">
         <v>1122</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="114"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="122"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121" t="s">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133" t="s">
         <v>7153</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="71" t="s">
         <v>7445</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="133" t="s">
         <v>7446</v>
       </c>
-      <c r="H11" s="121"/>
+      <c r="H11" s="133"/>
       <c r="I11" s="71" t="s">
         <v>7447</v>
       </c>
-      <c r="J11" s="121" t="s">
+      <c r="J11" s="133" t="s">
         <v>7448</v>
       </c>
-      <c r="K11" s="121"/>
-      <c r="L11" s="114"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="69" t="s">
         <v>7151</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="127" t="s">
         <v>7156</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="116"/>
+      <c r="H13" s="127"/>
       <c r="I13" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="116"/>
-      <c r="L13" s="114"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="122"/>
     </row>
     <row r="14" spans="1:12" ht="17.25">
       <c r="A14" s="62" t="s">
         <v>7155</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="131" t="s">
         <v>7157</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="H14" s="115"/>
+      <c r="H14" s="131"/>
       <c r="I14" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="114"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="122"/>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="69" t="s">
         <v>7154</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="127" t="s">
         <v>7156</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G15" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="116"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="116" t="s">
+      <c r="J15" s="127" t="s">
         <v>7455</v>
       </c>
-      <c r="K15" s="116"/>
-      <c r="L15" s="114"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="122"/>
     </row>
     <row r="16" spans="1:12" ht="18" thickBot="1">
       <c r="A16" s="62" t="s">
         <v>7159</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="131" t="s">
         <v>7157</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="H16" s="115"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="J16" s="118" t="s">
+      <c r="J16" s="114" t="s">
         <v>7454</v>
       </c>
-      <c r="K16" s="118"/>
-      <c r="L16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
       <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" ht="18.75">
       <c r="A18" s="69" t="s">
         <v>7151</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="127" t="s">
         <v>7160</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
       <c r="F18" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="127" t="s">
         <v>7162</v>
       </c>
-      <c r="H18" s="116"/>
+      <c r="H18" s="127"/>
       <c r="I18" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="J18" s="116" t="s">
+      <c r="J18" s="127" t="s">
         <v>7162</v>
       </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="114"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="62" t="s">
         <v>7155</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="131" t="s">
         <v>7161</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="H19" s="115"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="114"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="69" t="s">
         <v>7154</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="127" t="s">
         <v>7160</v>
       </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
       <c r="F20" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="127" t="s">
         <v>7162</v>
       </c>
-      <c r="H20" s="116"/>
+      <c r="H20" s="127"/>
       <c r="I20" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="J20" s="116" t="s">
+      <c r="J20" s="127" t="s">
         <v>7453</v>
       </c>
-      <c r="K20" s="116"/>
-      <c r="L20" s="114"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:12" ht="18" thickBot="1">
       <c r="A21" s="62" t="s">
         <v>7159</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="114" t="s">
         <v>7161</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="72" t="s">
         <v>7158</v>
       </c>
-      <c r="G21" s="118" t="s">
+      <c r="G21" s="114" t="s">
         <v>7158</v>
       </c>
-      <c r="H21" s="118"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="J21" s="118" t="s">
+      <c r="J21" s="114" t="s">
         <v>7452</v>
       </c>
-      <c r="K21" s="118"/>
-      <c r="L21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
       <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:12" ht="18.75">
       <c r="A23" s="69" t="s">
         <v>7151</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="127" t="s">
         <v>7163</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="127" t="s">
         <v>7162</v>
       </c>
-      <c r="H23" s="116"/>
+      <c r="H23" s="127"/>
       <c r="I23" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="J23" s="116" t="s">
+      <c r="J23" s="127" t="s">
         <v>7450</v>
       </c>
-      <c r="K23" s="116"/>
-      <c r="L23" s="114"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="1:12" ht="17.25">
       <c r="A24" s="62" t="s">
         <v>7155</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="131" t="s">
         <v>7164</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
       <c r="F24" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="G24" s="115" t="s">
+      <c r="G24" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="H24" s="115"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="J24" s="115" t="s">
+      <c r="J24" s="131" t="s">
         <v>7449</v>
       </c>
-      <c r="K24" s="115"/>
-      <c r="L24" s="114"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="1:12" ht="18.75">
       <c r="A25" s="69" t="s">
         <v>7154</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="127" t="s">
         <v>7163</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
       <c r="F25" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="G25" s="116" t="s">
+      <c r="G25" s="127" t="s">
         <v>7162</v>
       </c>
-      <c r="H25" s="116"/>
+      <c r="H25" s="127"/>
       <c r="I25" s="68" t="s">
         <v>7162</v>
       </c>
-      <c r="J25" s="116" t="s">
+      <c r="J25" s="127" t="s">
         <v>7451</v>
       </c>
-      <c r="K25" s="116"/>
-      <c r="L25" s="114"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="1:12" ht="17.25">
       <c r="A26" s="62" t="s">
         <v>7159</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="131" t="s">
         <v>7164</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
       <c r="F26" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G26" s="131" t="s">
         <v>7158</v>
       </c>
-      <c r="H26" s="115"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="67" t="s">
         <v>7158</v>
       </c>
-      <c r="J26" s="115" t="s">
+      <c r="J26" s="131" t="s">
         <v>7165</v>
       </c>
-      <c r="K26" s="115"/>
-      <c r="L26" s="114"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:E6"/>
@@ -38027,59 +38077,17 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="L4:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38089,8 +38097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C32026-F7B0-4A41-8991-0E9A1E419CBE}">
   <dimension ref="A1:E3198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -92453,6 +92461,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa6c27e5-2960-4c71-81aa-383a710c0b60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="112b3ed3-6cb6-4524-af0a-33e0546dafc2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C8EE345695F3F49944A214EF168EE9D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e69ffef55904b47000d5fcd61d641820">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa6c27e5-2960-4c71-81aa-383a710c0b60" xmlns:ns3="112b3ed3-6cb6-4524-af0a-33e0546dafc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4af01d31568848e80ae5930849c45548" ns2:_="" ns3:_="">
     <xsd:import namespace="fa6c27e5-2960-4c71-81aa-383a710c0b60"/>
@@ -92659,27 +92687,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9752EDB0-91E8-4998-8214-397E8FB8FAE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fa6c27e5-2960-4c71-81aa-383a710c0b60"/>
+    <ds:schemaRef ds:uri="112b3ed3-6cb6-4524-af0a-33e0546dafc2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa6c27e5-2960-4c71-81aa-383a710c0b60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="112b3ed3-6cb6-4524-af0a-33e0546dafc2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F062B012-F2F4-4689-803E-86B9EC5F7D97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA2CD02C-7B6F-4A46-BA67-9BB3A3E0BE4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -92696,23 +92723,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F062B012-F2F4-4689-803E-86B9EC5F7D97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9752EDB0-91E8-4998-8214-397E8FB8FAE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fa6c27e5-2960-4c71-81aa-383a710c0b60"/>
-    <ds:schemaRef ds:uri="112b3ed3-6cb6-4524-af0a-33e0546dafc2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>